--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2516947488782103</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.600153233641044</v>
+        <v>-1.599840003835905</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1516088488942818</v>
+        <v>0.1516450513340717</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2452076676621068</v>
+        <v>-0.2453115529241126</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2644355024423752</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.532628600346805</v>
+        <v>-1.531730622438103</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1002344387941487</v>
+        <v>0.09987871047273472</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.248569772505205</v>
+        <v>-0.2487507847041546</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2740648376316474</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.48798076096155</v>
+        <v>-1.486295773492198</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09598616118575812</v>
+        <v>0.09557534219509864</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2584498905296095</v>
+        <v>-0.2584435944531243</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2738893813245374</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.557444585813231</v>
+        <v>-1.555999636259877</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1229349425615472</v>
+        <v>0.1217985007559681</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354644893012555</v>
+        <v>-0.2353842143260692</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2648465166370912</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.591797553135619</v>
+        <v>-1.590889344102628</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1079565766032499</v>
+        <v>0.1063353369083101</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2612248862404626</v>
+        <v>-0.2610485960988769</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2500528854943643</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.478549238386716</v>
+        <v>-1.477855095954223</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1210618598071994</v>
+        <v>0.1187118492590974</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530462828861842</v>
+        <v>-0.2528086059988678</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2337949909271419</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.263812105744149</v>
+        <v>-1.264097003205104</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1577774298306592</v>
+        <v>0.1548780866092234</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2590857942546149</v>
+        <v>-0.2586198845947099</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2201483457666718</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.006306512547159</v>
+        <v>-1.007073059859233</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1795146338958217</v>
+        <v>0.1759526286243183</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2563501490217943</v>
+        <v>-0.2557221153923954</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2116429294093548</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.5935931898751945</v>
+        <v>-0.5948744414399333</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1684650196642909</v>
+        <v>0.1647235762129592</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1647327920473665</v>
+        <v>-0.163903283970441</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2057174706204816</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2203775160235884</v>
+        <v>-0.2220365321774393</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1383414417208383</v>
+        <v>0.1348156388891248</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.128919134980412</v>
+        <v>-0.1282517508729805</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1921348884665508</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2408872134544568</v>
+        <v>0.2390393150060498</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1032549814879247</v>
+        <v>0.1001478677424771</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03875144961670206</v>
+        <v>-0.0383784070849538</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.158604865723261</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7655392669664021</v>
+        <v>0.7625517786741733</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.005736398547420131</v>
+        <v>-0.007828269959628745</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05505694197457633</v>
+        <v>0.05525526838386022</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.09874908268378416</v>
       </c>
       <c r="E14" t="n">
-        <v>1.310433206378274</v>
+        <v>1.306979808426141</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2300467154857385</v>
+        <v>-0.2324770010090268</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1590240529747294</v>
+        <v>0.1588162824507177</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.0140087921943248</v>
       </c>
       <c r="E15" t="n">
-        <v>1.87191101125217</v>
+        <v>1.868435577032338</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4417475652433172</v>
+        <v>-0.4443761771758893</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2926425361819447</v>
+        <v>0.2923781009695662</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.08550835354057759</v>
       </c>
       <c r="E16" t="n">
-        <v>2.343834998219664</v>
+        <v>2.34018799591561</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6663065772028011</v>
+        <v>-0.668688068133329</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4369187028594871</v>
+        <v>0.4364921436776146</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1898288697647552</v>
       </c>
       <c r="E17" t="n">
-        <v>2.799057068291036</v>
+        <v>2.795314050820583</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8796215835692736</v>
+        <v>-0.8813711058225993</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5559428807740026</v>
+        <v>0.5549905992056156</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2956111544764442</v>
       </c>
       <c r="E18" t="n">
-        <v>3.222217942880634</v>
+        <v>3.219337487888654</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207707768184507</v>
+        <v>-1.209203873359303</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6773800300014718</v>
+        <v>0.6763836758976886</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.4007889953909451</v>
       </c>
       <c r="E19" t="n">
-        <v>3.596555892365727</v>
+        <v>3.593952464739096</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.506724180657999</v>
+        <v>-1.507289253522546</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8383817238619553</v>
+        <v>0.8373460192801395</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.5027902108980815</v>
       </c>
       <c r="E20" t="n">
-        <v>3.721340980264203</v>
+        <v>3.718595890916655</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.842524632986727</v>
+        <v>-1.842763883893164</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01457270224299</v>
+        <v>1.013256822257583</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5992283803347644</v>
       </c>
       <c r="E21" t="n">
-        <v>3.971358177491604</v>
+        <v>3.969110478186387</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.07908711476525</v>
+        <v>-2.078544078168401</v>
       </c>
       <c r="G21" t="n">
-        <v>1.182372584688371</v>
+        <v>1.180897728771713</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.6895375566604696</v>
       </c>
       <c r="E22" t="n">
-        <v>4.176281300912862</v>
+        <v>4.173408716016489</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.374859473829741</v>
+        <v>-2.374862621867983</v>
       </c>
       <c r="G22" t="n">
-        <v>1.322606670262414</v>
+        <v>1.320886267362832</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.7745263295898283</v>
       </c>
       <c r="E23" t="n">
-        <v>4.401482512673837</v>
+        <v>4.39884760466478</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.506870096504547</v>
+        <v>-2.506886623705321</v>
       </c>
       <c r="G23" t="n">
-        <v>1.493693104633071</v>
+        <v>1.491757061113871</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8543016949656577</v>
       </c>
       <c r="E24" t="n">
-        <v>4.529275551113119</v>
+        <v>4.526968039081292</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.621675903173977</v>
+        <v>-2.622144173862564</v>
       </c>
       <c r="G24" t="n">
-        <v>1.597587810753644</v>
+        <v>1.59544084867219</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.9278220312076134</v>
       </c>
       <c r="E25" t="n">
-        <v>4.670402105528939</v>
+        <v>4.6685888355012</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817837249156514</v>
+        <v>-2.818709255749715</v>
       </c>
       <c r="G25" t="n">
-        <v>1.660781530435624</v>
+        <v>1.65863456835417</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.9930921796667604</v>
       </c>
       <c r="E26" t="n">
-        <v>4.78379444302744</v>
+        <v>4.782181073428107</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907785358852803</v>
+        <v>-2.908603061786319</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703925394550476</v>
+        <v>1.701967314763578</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.048225058342773</v>
       </c>
       <c r="E27" t="n">
-        <v>4.894084388837857</v>
+        <v>4.892924336745459</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.980478283931832</v>
+        <v>-2.981650928177201</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754325486814524</v>
+        <v>1.752392591333567</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.091298229150891</v>
       </c>
       <c r="E28" t="n">
-        <v>4.893513019896826</v>
+        <v>4.892052330152259</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.069635449019668</v>
+        <v>-3.07070420800303</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795364887364197</v>
+        <v>1.793202185091529</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.120574143809929</v>
       </c>
       <c r="E29" t="n">
-        <v>4.902355859320293</v>
+        <v>4.900701565223806</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.083368765853016</v>
+        <v>-3.084235263379292</v>
       </c>
       <c r="G29" t="n">
-        <v>1.726573955686871</v>
+        <v>1.724266443655045</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.1347638581919</v>
       </c>
       <c r="E30" t="n">
-        <v>4.843994378340706</v>
+        <v>4.842102407356903</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.073155742784456</v>
+        <v>-3.07401909227249</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690423458527959</v>
+        <v>1.688358345440812</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.132707853657956</v>
       </c>
       <c r="E31" t="n">
-        <v>4.718669401883623</v>
+        <v>4.716912796544253</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.061729150973374</v>
+        <v>-3.062436672568399</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631671620806289</v>
+        <v>1.6296033596809</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.113821325550944</v>
       </c>
       <c r="E32" t="n">
-        <v>4.638221284593945</v>
+        <v>4.636305703323322</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.022851665686808</v>
+        <v>-3.023341972643093</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594139134858874</v>
+        <v>1.592369937366532</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.078465153917154</v>
       </c>
       <c r="E33" t="n">
-        <v>4.560201878808434</v>
+        <v>4.558901739014241</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.95376796645292</v>
+        <v>-2.95433618735571</v>
       </c>
       <c r="G33" t="n">
-        <v>1.564889137527743</v>
+        <v>1.563398541419872</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.029469909953008</v>
       </c>
       <c r="E34" t="n">
-        <v>4.357625617897036</v>
+        <v>4.355664390071896</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.881615716942058</v>
+        <v>-2.882290184135535</v>
       </c>
       <c r="G34" t="n">
-        <v>1.51454256191382</v>
+        <v>1.513338437286025</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.9710259029638614</v>
       </c>
       <c r="E35" t="n">
-        <v>4.132847817279691</v>
+        <v>4.131221855527388</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.84994881325017</v>
+        <v>-2.850676010084211</v>
       </c>
       <c r="G35" t="n">
-        <v>1.393459566988643</v>
+        <v>1.392386085947916</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.9062602513910761</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981704205175914</v>
+        <v>3.980177406628252</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.824726730850448</v>
+        <v>-2.825462584789656</v>
       </c>
       <c r="G36" t="n">
-        <v>1.36705067417146</v>
+        <v>1.366107836717801</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.837211049756225</v>
       </c>
       <c r="E37" t="n">
-        <v>3.785779749071132</v>
+        <v>3.78448275731518</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.760956920170071</v>
+        <v>-2.761798233390407</v>
       </c>
       <c r="G37" t="n">
-        <v>1.279961770209014</v>
+        <v>1.279023654812719</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.7655026411105411</v>
       </c>
       <c r="E38" t="n">
-        <v>3.716003481423873</v>
+        <v>3.715115734639459</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.72973388987039</v>
+        <v>-2.730734179021977</v>
       </c>
       <c r="G38" t="n">
-        <v>1.236839942361861</v>
+        <v>1.236134781795518</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.6929085413929742</v>
       </c>
       <c r="E39" t="n">
-        <v>3.505829430213956</v>
+        <v>3.505133713762341</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.74715985556231</v>
+        <v>-2.748038158231996</v>
       </c>
       <c r="G39" t="n">
-        <v>1.161601828363688</v>
+        <v>1.160762876172034</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6207599322538148</v>
       </c>
       <c r="E40" t="n">
-        <v>3.259962921409425</v>
+        <v>3.25908619275886</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.712393708220581</v>
+        <v>-2.713168912637822</v>
       </c>
       <c r="G40" t="n">
-        <v>1.097471567304534</v>
+        <v>1.09663261511288</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5498959627169224</v>
       </c>
       <c r="E41" t="n">
-        <v>3.087957259871928</v>
+        <v>3.087285153707132</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.651612959851555</v>
+        <v>-2.652039519033428</v>
       </c>
       <c r="G41" t="n">
-        <v>1.065522127180372</v>
+        <v>1.064769746040391</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.4799626100818027</v>
       </c>
       <c r="E42" t="n">
-        <v>2.97394003678227</v>
+        <v>2.973573290327007</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.620744870863728</v>
+        <v>-2.621398088799067</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9814002492615784</v>
+        <v>0.9806037955862003</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4105644870868301</v>
       </c>
       <c r="E43" t="n">
-        <v>2.840532472137309</v>
+        <v>2.840527750079945</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.603938281696039</v>
+        <v>-2.604693810874264</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9292986423274043</v>
+        <v>0.928480152384328</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.34141377459968</v>
       </c>
       <c r="E44" t="n">
-        <v>2.711757245766336</v>
+        <v>2.711664378638179</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.532207082300125</v>
+        <v>-2.532902011742179</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8652376381095876</v>
+        <v>0.8647308039525289</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2720466054565315</v>
       </c>
       <c r="E45" t="n">
-        <v>2.515176423687972</v>
+        <v>2.515277160911735</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.466807374819642</v>
+        <v>-2.467413372181342</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8352210934663835</v>
+        <v>0.8346701867739283</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.2023290861994315</v>
       </c>
       <c r="E46" t="n">
-        <v>2.389250171926553</v>
+        <v>2.389450072354958</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.427294772817631</v>
+        <v>-2.428387929097374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7719171924459125</v>
+        <v>0.7714150803462175</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1322152908793461</v>
       </c>
       <c r="E47" t="n">
-        <v>2.226158180672982</v>
+        <v>2.226206975265742</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.292168379292209</v>
+        <v>-2.292920760432191</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7155846221136821</v>
+        <v>0.7151675070465375</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.0615454535628794</v>
       </c>
       <c r="E48" t="n">
-        <v>2.138170511792274</v>
+        <v>2.138534110209294</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.25127929756862</v>
+        <v>-2.252540086884782</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6668750263859111</v>
+        <v>0.6664988358159202</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.009683859339926449</v>
       </c>
       <c r="E49" t="n">
-        <v>1.984898825836498</v>
+        <v>1.985322236980128</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.199385461158458</v>
+        <v>-2.200670647771</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5924805866367554</v>
+        <v>0.5923263327628679</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.08117305737821949</v>
       </c>
       <c r="E50" t="n">
-        <v>1.891595694383157</v>
+        <v>1.89173263404671</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.151957116995426</v>
+        <v>-2.153243877627089</v>
       </c>
       <c r="G50" t="n">
-        <v>0.535781269849262</v>
+        <v>0.5355955355929485</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1516576285210591</v>
       </c>
       <c r="E51" t="n">
-        <v>1.767640114561606</v>
+        <v>1.767610208198302</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.101931641282247</v>
+        <v>-2.103247521267654</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4907816371903966</v>
+        <v>0.4908052474772162</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2200255550995735</v>
       </c>
       <c r="E52" t="n">
-        <v>1.65592410742729</v>
+        <v>1.655429865423202</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.98386131895524</v>
+        <v>-1.984919846814315</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4551788986856964</v>
+        <v>0.4551222339973295</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.2857182801035355</v>
       </c>
       <c r="E53" t="n">
-        <v>1.612632285515036</v>
+        <v>1.612550436520728</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.924306731481707</v>
+        <v>-1.92527868828911</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3839624035424468</v>
+        <v>0.3837263006742517</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3486216828915527</v>
       </c>
       <c r="E54" t="n">
-        <v>1.569288520971779</v>
+        <v>1.569466385132486</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.913893807984743</v>
+        <v>-1.914917707423148</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3496393425833639</v>
+        <v>0.3495275872257516</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.4088072296369507</v>
       </c>
       <c r="E55" t="n">
-        <v>1.514267108567592</v>
+        <v>1.514405622250266</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.84885769892128</v>
+        <v>-1.849950068191463</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3227220415900009</v>
+        <v>0.322764540106276</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4660861658228388</v>
       </c>
       <c r="E56" t="n">
-        <v>1.4564077396877</v>
+        <v>1.457166416904167</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.787064856257258</v>
+        <v>-1.788102134858195</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2153393090966254</v>
+        <v>0.2150843179989747</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.5200625174370358</v>
       </c>
       <c r="E57" t="n">
-        <v>1.466050180824788</v>
+        <v>1.466412205222687</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.784713271690034</v>
+        <v>-1.785537270700035</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2161200225807905</v>
+        <v>0.21579262660356</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.5707214387406001</v>
       </c>
       <c r="E58" t="n">
-        <v>1.451078110942976</v>
+        <v>1.451477911799786</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.769862401280562</v>
+        <v>-1.770804451724661</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2116230499512345</v>
+        <v>0.211259451534214</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.6181278608028885</v>
       </c>
       <c r="E59" t="n">
-        <v>1.4393453724128</v>
+        <v>1.439981276137806</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.733381360106176</v>
+        <v>-1.733992866534802</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1376945198619837</v>
+        <v>0.1371137068062238</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.6624748261790415</v>
       </c>
       <c r="E60" t="n">
-        <v>1.472303758793716</v>
+        <v>1.473586584377576</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.765734536134951</v>
+        <v>-1.766445992777779</v>
       </c>
       <c r="G60" t="n">
-        <v>0.1174699481723912</v>
+        <v>0.1168859870783887</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.7039841399729049</v>
       </c>
       <c r="E61" t="n">
-        <v>1.469930137958794</v>
+        <v>1.47128064636487</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.784104913299652</v>
+        <v>-1.784871460611725</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1298055360260247</v>
+        <v>0.1293349043087558</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.7429129770434704</v>
       </c>
       <c r="E62" t="n">
-        <v>1.480638190041003</v>
+        <v>1.482046937154567</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.827912226474132</v>
+        <v>-1.828607942925747</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04232155326413247</v>
+        <v>0.04157861623887854</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.7786262839568147</v>
       </c>
       <c r="E63" t="n">
-        <v>1.467140976075849</v>
+        <v>1.468524538883473</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.788824609634872</v>
+        <v>-1.789041824273611</v>
       </c>
       <c r="G63" t="n">
-        <v>0.008094507471449013</v>
+        <v>0.007439715516987927</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.8099866311616627</v>
       </c>
       <c r="E64" t="n">
-        <v>1.468615831992508</v>
+        <v>1.470018283029587</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.816347907989936</v>
+        <v>-1.816609982173632</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.0221502699443437</v>
+        <v>-0.02265395606315992</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.8359882649876859</v>
       </c>
       <c r="E65" t="n">
-        <v>1.478752515133684</v>
+        <v>1.480180150476704</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.841816324382141</v>
+        <v>-1.84206895445111</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02529201211045988</v>
+        <v>-0.02593421191195056</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.855826409080263</v>
       </c>
       <c r="E66" t="n">
-        <v>1.442304528360846</v>
+        <v>1.44347087652973</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.847100306572348</v>
+        <v>-1.84713965705038</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03364847962544523</v>
+        <v>-0.03444493330082338</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.8688060688977851</v>
       </c>
       <c r="E67" t="n">
-        <v>1.407835083623482</v>
+        <v>1.409122631264706</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.858904662972542</v>
+        <v>-1.858786611538445</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05270670314615396</v>
+        <v>-0.05343389998019488</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.8749081511660763</v>
       </c>
       <c r="E68" t="n">
-        <v>1.357756091260179</v>
+        <v>1.359142802106045</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.888827553478029</v>
+        <v>-1.888606403791486</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05993302493204541</v>
+        <v>-0.0603690282286457</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.8744296082745497</v>
       </c>
       <c r="E69" t="n">
-        <v>1.253981010592825</v>
+        <v>1.25520874550744</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.910243657642446</v>
+        <v>-1.909998110659523</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.08224159793824005</v>
+        <v>-0.08284602128081953</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.8680198819993743</v>
       </c>
       <c r="E70" t="n">
-        <v>1.270534969691544</v>
+        <v>1.27229629708828</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.915408801388994</v>
+        <v>-1.914542303862718</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.05106027914527344</v>
+        <v>-0.05163007406718428</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.8564806986347615</v>
       </c>
       <c r="E71" t="n">
-        <v>1.263366886613141</v>
+        <v>1.265293486017613</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.949840469667447</v>
+        <v>-1.9490093875714</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.07073394414241073</v>
+        <v>-0.07100152739303185</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.8403280032625284</v>
       </c>
       <c r="E72" t="n">
-        <v>1.24706477057383</v>
+        <v>1.249439965427873</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.979234489748177</v>
+        <v>-1.978123232248538</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1057574436104723</v>
+        <v>-0.1061352081995845</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.8198903980058747</v>
       </c>
       <c r="E73" t="n">
-        <v>1.25193006367777</v>
+        <v>1.254722373598958</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.978977924631405</v>
+        <v>-1.977765142898442</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09308186762663789</v>
+        <v>-0.09340611556562584</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7956557503663693</v>
       </c>
       <c r="E74" t="n">
-        <v>1.246616175124259</v>
+        <v>1.250288361734254</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.986979450834537</v>
+        <v>-1.985611628218126</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07398114558965405</v>
+        <v>-0.07423141462994086</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7675180424644342</v>
       </c>
       <c r="E75" t="n">
-        <v>1.191004505549585</v>
+        <v>1.194840390148194</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.019711178461984</v>
+        <v>-2.01830164433886</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04599980767029172</v>
+        <v>-0.04610054489405497</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.7351527313094657</v>
       </c>
       <c r="E76" t="n">
-        <v>1.226547431327675</v>
+        <v>1.231234860270909</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023048098999142</v>
+        <v>-2.021518152413238</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.02609633588144453</v>
+        <v>-0.02598772856207478</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6980773181467685</v>
       </c>
       <c r="E77" t="n">
-        <v>1.161397205877919</v>
+        <v>1.166950345337867</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020525733357258</v>
+        <v>-2.018773063065689</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02771914959550554</v>
+        <v>-0.02775377801617415</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.6554064099374185</v>
       </c>
       <c r="E78" t="n">
-        <v>1.181182626232668</v>
+        <v>1.187226859658463</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.031140131301749</v>
+        <v>-2.029331583331374</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.02251544238048546</v>
+        <v>-0.02229507970350337</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.6064542210382947</v>
       </c>
       <c r="E79" t="n">
-        <v>1.167252557009157</v>
+        <v>1.173929546121715</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007999689189947</v>
+        <v>-2.005884994500479</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04416292735573382</v>
+        <v>-0.0441109847247309</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.5510551159042367</v>
       </c>
       <c r="E80" t="n">
-        <v>1.146228383605944</v>
+        <v>1.153091106974815</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969940693846457</v>
+        <v>-1.968324963218442</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02784034906784569</v>
+        <v>-0.02757276581722457</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4897727386918297</v>
       </c>
       <c r="E81" t="n">
-        <v>1.170899559313211</v>
+        <v>1.177732376318777</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.923205705106357</v>
+        <v>-1.921571086248887</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.008001412062971822</v>
+        <v>-0.007543372498673321</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.4234568103155445</v>
       </c>
       <c r="E82" t="n">
-        <v>1.229689173493792</v>
+        <v>1.237003640350476</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.951413701779187</v>
+        <v>-1.950093886745976</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01976113719852971</v>
+        <v>0.02036556054110918</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3529929693331446</v>
       </c>
       <c r="E83" t="n">
-        <v>1.316530956454193</v>
+        <v>1.323741538048872</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.846723328992796</v>
+        <v>-1.845760816300121</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01223417776046982</v>
+        <v>0.01267647713355531</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2796042263398612</v>
       </c>
       <c r="E84" t="n">
-        <v>1.310755880298141</v>
+        <v>1.317612307590527</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.785891425002328</v>
+        <v>-1.785387738883512</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02272658922306021</v>
+        <v>0.02313583419459838</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2057118185790878</v>
       </c>
       <c r="E85" t="n">
-        <v>1.419640227033237</v>
+        <v>1.425934729499319</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.757981704952985</v>
+        <v>-1.757991936077273</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0165186578086503</v>
+        <v>0.01697040129646359</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1343268766887356</v>
       </c>
       <c r="E86" t="n">
-        <v>1.664618989053355</v>
+        <v>1.670372028941709</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.653584099723156</v>
+        <v>-1.654153107635506</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03239736270433163</v>
+        <v>0.03289475274666265</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06847886268124993</v>
       </c>
       <c r="E87" t="n">
-        <v>1.59879350940056</v>
+        <v>1.603348720737604</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.533801244592174</v>
+        <v>-1.534734637931105</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05322163567913973</v>
+        <v>0.05372059974059205</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01187594434898985</v>
       </c>
       <c r="E88" t="n">
-        <v>1.74614058738376</v>
+        <v>1.74998906413534</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.334016506592402</v>
+        <v>-1.335060868279385</v>
       </c>
       <c r="G88" t="n">
-        <v>0.08989785522456706</v>
+        <v>0.09036848694183597</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03195109142224517</v>
       </c>
       <c r="E89" t="n">
-        <v>1.913465116054508</v>
+        <v>1.91643214209816</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.159059559202467</v>
+        <v>-1.160210954189698</v>
       </c>
       <c r="G89" t="n">
-        <v>0.1136104532869619</v>
+        <v>0.1140385864879557</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.05967417000905167</v>
       </c>
       <c r="E90" t="n">
-        <v>1.934336609602956</v>
+        <v>1.936412740823951</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9187658650969004</v>
+        <v>-0.9200974852735208</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1424370394744627</v>
+        <v>0.142841562388637</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.06967839926734132</v>
       </c>
       <c r="E91" t="n">
-        <v>1.972692307550811</v>
+        <v>1.974417432507756</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6667189702125819</v>
+        <v>-0.6686046451199</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09551238143024661</v>
+        <v>0.09568709755271099</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.06182380702159933</v>
       </c>
       <c r="E92" t="n">
-        <v>1.988390000247543</v>
+        <v>1.989613013104793</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4614385444507887</v>
+        <v>-0.4635744883983938</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1067666181475465</v>
+        <v>0.1069869808245286</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.03782096469808061</v>
       </c>
       <c r="E93" t="n">
-        <v>1.96180009523141</v>
+        <v>1.962985331629749</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2407799518738879</v>
+        <v>-0.2427364576416647</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09192991391016625</v>
+        <v>0.09226045792563939</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.002295389052339396</v>
       </c>
       <c r="E94" t="n">
-        <v>1.849161712892011</v>
+        <v>1.850339079194744</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05771208395189014</v>
+        <v>-0.05974886469485323</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0666558888794411</v>
+        <v>0.06694708241688173</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.03819864374971452</v>
       </c>
       <c r="E95" t="n">
-        <v>1.797864429728822</v>
+        <v>1.798591626562863</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07349185392324999</v>
+        <v>0.07127720901957992</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05421484174468046</v>
+        <v>0.0545296455689406</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.07674947683550372</v>
       </c>
       <c r="E96" t="n">
-        <v>1.669811678134526</v>
+        <v>1.670515264681747</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1466774469872468</v>
+        <v>0.1446973309326505</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.005306691327305043</v>
+        <v>-0.005062718363503436</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1076832563771175</v>
       </c>
       <c r="E97" t="n">
-        <v>1.504122555330809</v>
+        <v>1.504242180784028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1507777667982351</v>
+        <v>0.148740986055272</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0205306042685253</v>
+        <v>-0.02018589408096045</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.1307732605612406</v>
       </c>
       <c r="E98" t="n">
-        <v>1.390533465442145</v>
+        <v>1.390593278168754</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1788267875398133</v>
+        <v>0.1769914812443767</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05867223561588356</v>
+        <v>-0.0580804044262745</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1485703062894161</v>
       </c>
       <c r="E99" t="n">
-        <v>1.250880192923863</v>
+        <v>1.25067084838073</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1818426081762254</v>
+        <v>0.1800828547986113</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09832020326232659</v>
+        <v>-0.09783855341120858</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1678098768649382</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091735841626514</v>
+        <v>1.091389557419828</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2378131541105566</v>
+        <v>0.2364248692455694</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1454856862321017</v>
+        <v>-0.145115791738596</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1885113131499721</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9099775576134385</v>
+        <v>0.9091543456129981</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2198835022998205</v>
+        <v>0.2184228125552534</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1712098807315188</v>
+        <v>-0.1706888804023683</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2144095170854397</v>
       </c>
       <c r="E102" t="n">
-        <v>0.850079833971462</v>
+        <v>0.8494203199596371</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2580676321634539</v>
+        <v>0.2569201722240256</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2092192944726878</v>
+        <v>-0.2087455147171763</v>
       </c>
     </row>
   </sheetData>
